--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -186,6 +186,10 @@
   </si>
   <si>
     <t>http://ticket.yes24.com/New/Rank/Ranking.aspx</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>오늘</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -323,7 +327,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -348,6 +352,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -667,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="18" customHeight="1"/>
@@ -787,6 +794,15 @@
       </c>
       <c r="B10" s="9" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="18" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="10">
+        <f ca="1">TODAY()</f>
+        <v>45393</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -189,7 +189,57 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>오늘</t>
+    <t>결과파일</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>sbfpdl@gmail.com</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>메일제목</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;html&gt;
+  &lt;head&gt;
+  &lt;/head&gt;
+  &lt;body&gt;
+    &lt;p&gt;
+      안녕하세요.
+      &lt;br&gt;
+      &lt;br&gt;
+      {0} {1} 수행 결과 송부드립니다.
+      &lt;br&gt;
+      &lt;br&gt;
+      &lt;b&gt;- 처리 성공 : {2}&lt;/b&gt;
+      &lt;br&gt;
+      &lt;b&gt;- 처리 실패 : {3}&lt;/b&gt;
+      &lt;br&gt;
+      &lt;br&gt;
+      추출한 데이터는 엑셀 파일로 첨부드리니오니, 참고부탁드립니다.
+      &lt;br&gt;
+      &lt;br&gt;
+      감사합니다.
+    &lt;/p&gt;
+  &lt;/body&gt;
+&lt;/html&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>메일본문</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[{0}] {1} 수행결과_{2}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Data\Output\{0}_{1}_{2}.xlsx</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -354,9 +404,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - 강조색1" xfId="2" builtinId="30"/>
@@ -674,16 +722,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="43" style="5" customWidth="1"/>
+    <col min="2" max="2" width="68.7109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="81.42578125" style="5" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" style="5" customWidth="1"/>
     <col min="27" max="16384" width="14.42578125" style="5"/>
@@ -740,76 +788,100 @@
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="7"/>
+      <c r="A5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>43</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="18" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>51</v>
-      </c>
+      <c r="A8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:26" ht="18" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="18" customHeight="1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:26" ht="18" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B11" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="18" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="10">
-        <f ca="1">TODAY()</f>
-        <v>45393</v>
+        <v>53</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="18" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="396">
+      <c r="A14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
-    <hyperlink ref="B8" r:id="rId2"/>
+    <hyperlink ref="B11" r:id="rId1"/>
+    <hyperlink ref="B9" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
